--- a/Assets/StreamingAssets/Boss1Data.xlsx
+++ b/Assets/StreamingAssets/Boss1Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project-X\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3EC819-D125-47ED-852C-13154A49FF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A2FE4-7938-40B5-B187-3F13055DD8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>AngerValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +441,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -474,8 +478,8 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>30</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
